--- a/ProjectISM/dataset/products.xlsx
+++ b/ProjectISM/dataset/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>Product ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Cate ID</t>
+    <t>Cate Name</t>
   </si>
   <si>
     <t>Date</t>
@@ -67,6 +67,78 @@
     <t>O3</t>
   </si>
   <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
     <t>Cam Sành</t>
   </si>
   <si>
@@ -100,40 +172,76 @@
     <t>Nước Ép Táo</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>8.000</t>
-  </si>
-  <si>
-    <t>15.000</t>
-  </si>
-  <si>
-    <t>70.000</t>
-  </si>
-  <si>
-    <t>20.000</t>
-  </si>
-  <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>11.000</t>
-  </si>
-  <si>
-    <t>25.000</t>
-  </si>
-  <si>
-    <t>90.000</t>
-  </si>
-  <si>
-    <t>6.000</t>
+    <t>Chuối Tiêu</t>
+  </si>
+  <si>
+    <t>Dưa Hấu</t>
+  </si>
+  <si>
+    <t>Lê Hàn Quốc</t>
+  </si>
+  <si>
+    <t>Cam Xoàn</t>
+  </si>
+  <si>
+    <t>Thanh Long</t>
+  </si>
+  <si>
+    <t>Măng Cụt</t>
+  </si>
+  <si>
+    <t>Cà Rốt</t>
+  </si>
+  <si>
+    <t>Dâu Tây Đà Lạt</t>
+  </si>
+  <si>
+    <t>Nho Xanh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Mận Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chôm Chôm </t>
+  </si>
+  <si>
+    <t>Bắp Cải</t>
+  </si>
+  <si>
+    <t>Rau Muống</t>
+  </si>
+  <si>
+    <t>Cải Bó Xôi</t>
+  </si>
+  <si>
+    <t>Su Hào</t>
+  </si>
+  <si>
+    <t>Măng Tây</t>
+  </si>
+  <si>
+    <t>Gừng Tươi</t>
+  </si>
+  <si>
+    <t>Hành Tím</t>
+  </si>
+  <si>
+    <t>Trứng Gà Ta</t>
+  </si>
+  <si>
+    <t>Trứng Vịt Lộn</t>
+  </si>
+  <si>
+    <t>Sữa Tươi Vinamilk</t>
+  </si>
+  <si>
+    <t>Phô Mai Con Bò Cười</t>
+  </si>
+  <si>
+    <t>Đậu Nành Hữu Cơ</t>
+  </si>
+  <si>
+    <t>Mè Đen Hữu Cơ</t>
   </si>
   <si>
     <t>Trái cây</t>
@@ -145,16 +253,88 @@
     <t>Khác</t>
   </si>
   <si>
-    <t>20-2-2025</t>
-  </si>
-  <si>
-    <t>10-2-2025</t>
-  </si>
-  <si>
-    <t>15-2-2025</t>
-  </si>
-  <si>
-    <t>20-3-2025</t>
+    <t>Nông sản địa phương</t>
+  </si>
+  <si>
+    <t>Thảo mộc &amp; Gia vị</t>
+  </si>
+  <si>
+    <t>Trứng gà, vịt</t>
+  </si>
+  <si>
+    <t>Sữa &amp; Sản phẩm từ sữa</t>
+  </si>
+  <si>
+    <t>Thực phẩm hữu cơ</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
 </sst>
 </file>
@@ -512,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,19 +723,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,19 +743,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>15800</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,19 +763,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>70000</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,19 +783,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>20000</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -623,19 +803,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,19 +823,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>11000</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -663,19 +843,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -683,19 +863,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -703,19 +883,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>70000</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -723,19 +903,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>90000</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -743,19 +923,499 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>12000</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>18000</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>80000</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>90000</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>8000</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>120000</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>75000</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>55000</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>50000</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>6000</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>20000</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>12000</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>30000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>18000</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>16000</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>4000</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>28000</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>45000</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectISM/dataset/products.xlsx
+++ b/ProjectISM/dataset/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>Product ID</t>
   </si>
@@ -32,6 +32,309 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Cam Sành</t>
+  </si>
+  <si>
+    <t>Xoài Tứ Quý</t>
+  </si>
+  <si>
+    <t>Táo Envy</t>
+  </si>
+  <si>
+    <t>Ổi Hồng</t>
+  </si>
+  <si>
+    <t>Cải Thảo</t>
+  </si>
+  <si>
+    <t>Khoai Tây</t>
+  </si>
+  <si>
+    <t>Bí Ngô</t>
+  </si>
+  <si>
+    <t>Dưa leo</t>
+  </si>
+  <si>
+    <t>Hạt Dẻ Cười</t>
+  </si>
+  <si>
+    <t>Hạt Óc Chó</t>
+  </si>
+  <si>
+    <t>Nước Ép Táo</t>
+  </si>
+  <si>
+    <t>Chuối Tiêu</t>
+  </si>
+  <si>
+    <t>Dưa Hấu</t>
+  </si>
+  <si>
+    <t>Lê Hàn Quốc</t>
+  </si>
+  <si>
+    <t>Cam Xoàn</t>
+  </si>
+  <si>
+    <t>Thanh Long</t>
+  </si>
+  <si>
+    <t>Măng Cụt</t>
+  </si>
+  <si>
+    <t>Cà Rốt</t>
+  </si>
+  <si>
+    <t>Dâu Tây Đà Lạt</t>
+  </si>
+  <si>
+    <t>Nho Xanh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Mận Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chôm Chôm </t>
+  </si>
+  <si>
+    <t>Bắp Cải</t>
+  </si>
+  <si>
+    <t>Rau Muống</t>
+  </si>
+  <si>
+    <t>Cải Bó Xôi</t>
+  </si>
+  <si>
+    <t>Su Hào</t>
+  </si>
+  <si>
+    <t>Măng Tây</t>
+  </si>
+  <si>
+    <t>Gừng Tươi</t>
+  </si>
+  <si>
+    <t>Hành Tím</t>
+  </si>
+  <si>
+    <t>Trứng Gà Ta</t>
+  </si>
+  <si>
+    <t>Trứng Vịt Lộn</t>
+  </si>
+  <si>
+    <t>Sữa Tươi Vinamilk</t>
+  </si>
+  <si>
+    <t>Phô Mai Con Bò Cười</t>
+  </si>
+  <si>
+    <t>Đậu Nành Hữu Cơ</t>
+  </si>
+  <si>
+    <t>Mè Đen Hữu Cơ</t>
+  </si>
+  <si>
+    <t>Trái cây</t>
+  </si>
+  <si>
+    <t>Rau củ</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Nông sản địa phương</t>
+  </si>
+  <si>
+    <t>Thảo mộc &amp; Gia vị</t>
+  </si>
+  <si>
+    <t>Trứng gà, vịt</t>
+  </si>
+  <si>
+    <t>Sữa &amp; Sản phẩm từ sữa</t>
+  </si>
+  <si>
+    <t>Thực phẩm hữu cơ</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
 </sst>
 </file>
@@ -389,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +718,706 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>15800</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>70000</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>20000</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>11000</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>70000</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>90000</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>12000</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>18000</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>80000</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>90000</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>8000</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>120000</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>75000</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>55000</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>50000</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>6000</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>20000</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>12000</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>30000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>18000</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>16000</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>4000</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>28000</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>45000</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectISM/dataset/products.xlsx
+++ b/ProjectISM/dataset/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>Product ID</t>
   </si>
@@ -32,6 +32,312 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Cam Sành</t>
+  </si>
+  <si>
+    <t>Xoài Tứ Quý</t>
+  </si>
+  <si>
+    <t>Táo Envy</t>
+  </si>
+  <si>
+    <t>Ổi Hồng</t>
+  </si>
+  <si>
+    <t>Cải Thảo</t>
+  </si>
+  <si>
+    <t>Khoai Tây</t>
+  </si>
+  <si>
+    <t>Bí Ngô</t>
+  </si>
+  <si>
+    <t>Dưa leo</t>
+  </si>
+  <si>
+    <t>Hạt Dẻ Cười</t>
+  </si>
+  <si>
+    <t>Hạt Óc Chó</t>
+  </si>
+  <si>
+    <t>Nước Ép Táo</t>
+  </si>
+  <si>
+    <t>Chuối Tiêu</t>
+  </si>
+  <si>
+    <t>Dưa Hấu</t>
+  </si>
+  <si>
+    <t>Lê Hàn Quốc</t>
+  </si>
+  <si>
+    <t>Cam Xoàn</t>
+  </si>
+  <si>
+    <t>Thanh Long</t>
+  </si>
+  <si>
+    <t>Măng Cụt</t>
+  </si>
+  <si>
+    <t>Cà Rốt</t>
+  </si>
+  <si>
+    <t>Dâu Tây Đà Lạt</t>
+  </si>
+  <si>
+    <t>Nho Xanh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Mận Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chôm Chôm </t>
+  </si>
+  <si>
+    <t>Bắp Cải</t>
+  </si>
+  <si>
+    <t>Rau Muống</t>
+  </si>
+  <si>
+    <t>Cải Bó Xôi</t>
+  </si>
+  <si>
+    <t>Su Hào</t>
+  </si>
+  <si>
+    <t>Măng Tây</t>
+  </si>
+  <si>
+    <t>Gừng Tươi</t>
+  </si>
+  <si>
+    <t>Hành Tím</t>
+  </si>
+  <si>
+    <t>Trứng Gà Ta</t>
+  </si>
+  <si>
+    <t>Trứng Vịt Lộn</t>
+  </si>
+  <si>
+    <t>Sữa Tươi Vinamilk</t>
+  </si>
+  <si>
+    <t>Phô Mai Con Bò Cười</t>
+  </si>
+  <si>
+    <t>Đậu Nành Hữu Cơ</t>
+  </si>
+  <si>
+    <t>Mè Đen Hữu Cơ</t>
+  </si>
+  <si>
+    <t>Trái cây</t>
+  </si>
+  <si>
+    <t>Rau củ</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Nông sản địa phương</t>
+  </si>
+  <si>
+    <t>Thảo mộc &amp; Gia vị</t>
+  </si>
+  <si>
+    <t>Trứng gà, vịt</t>
+  </si>
+  <si>
+    <t>Sữa &amp; Sản phẩm từ sữa</t>
+  </si>
+  <si>
+    <t>Thực phẩm hữu cơ</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
 </sst>
 </file>
@@ -389,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +721,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>15800</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>70000</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>20000</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>11000</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>70000</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>90000</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>12000</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>18000</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>80000</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>90000</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>8000</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>120000</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>75000</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>55000</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>50000</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>6000</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>20000</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>12000</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>30000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>18000</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>16000</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>4000</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>28000</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>45000</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>45000</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectISM/dataset/products.xlsx
+++ b/ProjectISM/dataset/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Product ID</t>
   </si>
@@ -43,30 +43,12 @@
     <t>F3</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
-    <t>V2</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
@@ -91,12 +73,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
@@ -115,9 +91,6 @@
     <t>V10</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -133,15 +106,9 @@
     <t>M2</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Cam Sành</t>
   </si>
   <si>
@@ -151,30 +118,12 @@
     <t>Táo Envy</t>
   </si>
   <si>
-    <t>Ổi Hồng</t>
-  </si>
-  <si>
     <t>Cải Thảo</t>
   </si>
   <si>
-    <t>Khoai Tây</t>
-  </si>
-  <si>
     <t>Bí Ngô</t>
   </si>
   <si>
-    <t>Dưa leo</t>
-  </si>
-  <si>
-    <t>Hạt Dẻ Cười</t>
-  </si>
-  <si>
-    <t>Hạt Óc Chó</t>
-  </si>
-  <si>
-    <t>Nước Ép Táo</t>
-  </si>
-  <si>
     <t>Chuối Tiêu</t>
   </si>
   <si>
@@ -199,12 +148,6 @@
     <t>Dâu Tây Đà Lạt</t>
   </si>
   <si>
-    <t>Nho Xanh Ninh Thuận</t>
-  </si>
-  <si>
-    <t>Mận Hà Nội</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chôm Chôm </t>
   </si>
   <si>
@@ -223,9 +166,6 @@
     <t>Măng Tây</t>
   </si>
   <si>
-    <t>Gừng Tươi</t>
-  </si>
-  <si>
     <t>Hành Tím</t>
   </si>
   <si>
@@ -241,9 +181,6 @@
     <t>Phô Mai Con Bò Cười</t>
   </si>
   <si>
-    <t>Đậu Nành Hữu Cơ</t>
-  </si>
-  <si>
     <t>Mè Đen Hữu Cơ</t>
   </si>
   <si>
@@ -253,9 +190,6 @@
     <t>Rau củ</t>
   </si>
   <si>
-    <t>Khác</t>
-  </si>
-  <si>
     <t>Nông sản địa phương</t>
   </si>
   <si>
@@ -280,61 +214,43 @@
     <t>2025-05-20</t>
   </si>
   <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
     <t>2025-04-10</t>
   </si>
   <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
     <t>2025-03-15</t>
   </si>
   <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
     <t>2025-06-20</t>
   </si>
   <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>2025-03-09</t>
-  </si>
-  <si>
-    <t>2025-06-15</t>
+    <t>2025-03-20</t>
   </si>
   <si>
     <t>2025-07-01</t>
-  </si>
-  <si>
-    <t>2025-03-06</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-03-20</t>
   </si>
   <si>
     <t>2025-07-15</t>
@@ -695,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>8000</v>
@@ -735,10 +651,10 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -746,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>15800</v>
@@ -755,10 +671,10 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>70000</v>
@@ -775,10 +691,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -786,19 +702,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -806,19 +722,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -826,19 +742,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -846,19 +762,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -866,19 +782,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -886,19 +802,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -906,19 +822,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -926,19 +842,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -946,19 +862,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -966,19 +882,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>18000</v>
+        <v>120000</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -986,19 +902,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1006,19 +922,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>10000</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1026,19 +942,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>6000</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="C17">
-        <v>15000</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1046,19 +962,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1066,19 +982,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1086,19 +1002,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1106,19 +1022,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1126,19 +1042,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C22">
-        <v>55000</v>
+        <v>4000</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1146,19 +1062,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C23">
-        <v>50000</v>
+        <v>7000</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1166,19 +1082,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C24">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1186,19 +1102,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C25">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
         <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1206,239 +1122,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C26">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27">
-        <v>12000</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>30000</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29">
-        <v>18000</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>16000</v>
-      </c>
-      <c r="D30">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <v>4000</v>
-      </c>
-      <c r="D31">
-        <v>200</v>
-      </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>7000</v>
-      </c>
-      <c r="D32">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
-        <v>28000</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34">
-        <v>60000</v>
-      </c>
-      <c r="D34">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>30000</v>
-      </c>
-      <c r="D35">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36">
-        <v>45000</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37">
-        <v>45000</v>
-      </c>
-      <c r="D37">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectISM/dataset/products.xlsx
+++ b/ProjectISM/dataset/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>Product ID</t>
   </si>
@@ -28,19 +28,220 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Cate Name</t>
+    <t>Category Name</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>F5</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Cam Sành</t>
+  </si>
+  <si>
+    <t>Xoài Tứ Quý</t>
+  </si>
+  <si>
+    <t>Táo Envy</t>
+  </si>
+  <si>
+    <t>Ổi Hồng</t>
+  </si>
+  <si>
+    <t>Cải Thảo</t>
+  </si>
+  <si>
+    <t>Khoai Tây</t>
+  </si>
+  <si>
+    <t>Bí Ngô</t>
+  </si>
+  <si>
+    <t>Dưa leo</t>
+  </si>
+  <si>
+    <t>Hạt Dẻ Cười</t>
+  </si>
+  <si>
+    <t>Hạt Óc Chó</t>
+  </si>
+  <si>
+    <t>Nước Ép Táo</t>
+  </si>
+  <si>
+    <t>Chuối Tiêu</t>
+  </si>
+  <si>
+    <t>Dưa Hấu</t>
+  </si>
+  <si>
+    <t>Lê Hàn Quốc</t>
+  </si>
+  <si>
+    <t>Cam Xoàn</t>
+  </si>
+  <si>
+    <t>Thanh Long</t>
+  </si>
+  <si>
+    <t>Măng Cụt</t>
+  </si>
+  <si>
+    <t>Cà Rốt</t>
+  </si>
+  <si>
+    <t>Dâu Tây Đà Lạt</t>
+  </si>
+  <si>
+    <t>Nho Xanh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Mận Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chôm Chôm </t>
+  </si>
+  <si>
+    <t>Bắp Cải</t>
+  </si>
+  <si>
+    <t>Rau Muống</t>
+  </si>
+  <si>
+    <t>Cải Bó Xôi</t>
+  </si>
+  <si>
+    <t>Su Hào</t>
+  </si>
+  <si>
+    <t>Măng Tây</t>
+  </si>
+  <si>
+    <t>Gừng Tươi</t>
+  </si>
+  <si>
+    <t>Hành Tím</t>
+  </si>
+  <si>
+    <t>Trứng Gà Ta</t>
+  </si>
+  <si>
+    <t>Trứng Vịt Lộn</t>
+  </si>
+  <si>
+    <t>Sữa Tươi Vinamilk</t>
+  </si>
+  <si>
+    <t>Phô Mai Con Bò Cười</t>
   </si>
   <si>
     <t>Đậu Nành Hữu Cơ</t>
@@ -49,22 +250,97 @@
     <t>Mè Đen Hữu Cơ</t>
   </si>
   <si>
-    <t>Chuối Tiêu</t>
+    <t>Trái cây</t>
+  </si>
+  <si>
+    <t>Rau củ</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Nông sản địa phương</t>
+  </si>
+  <si>
+    <t>Thảo mộc &amp; Gia vị</t>
+  </si>
+  <si>
+    <t>Trứng gà, vịt</t>
+  </si>
+  <si>
+    <t>Sữa &amp; Sản phẩm từ sữa</t>
   </si>
   <si>
     <t>Thực phẩm hữu cơ</t>
   </si>
   <si>
-    <t>Trái cây</t>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
   </si>
   <si>
     <t>2025-05-20</t>
   </si>
   <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
     <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
   </si>
 </sst>
 </file>
@@ -422,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,19 +729,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,19 +749,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>45000</v>
+        <v>15800</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,19 +769,699 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>70000</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>20000</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>11000</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>70000</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>90000</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
         <v>12000</v>
       </c>
-      <c r="D4">
+      <c r="D13">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>18000</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>80000</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>90000</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>8000</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>120000</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>75000</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>55000</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>50000</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>6000</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>20000</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>12000</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>30000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>18000</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>16000</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>4000</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>28000</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>45000</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>8000</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>8000</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
